--- a/state_results/Rivers/MangaehuehuatdsRangatauaSTP_b9406cc740.xlsx
+++ b/state_results/Rivers/MangaehuehuatdsRangatauaSTP_b9406cc740.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U187"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>2.125</v>
       </c>
       <c r="G2" t="n">
-        <v>2.31462078964078</v>
+        <v>2.31435151161771</v>
       </c>
       <c r="H2" t="n">
         <v>6.5</v>
@@ -651,7 +651,7 @@
         <v>0.021</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0211499751327229</v>
+        <v>0.0211497652928043</v>
       </c>
       <c r="H3" t="n">
         <v>0.055</v>
@@ -732,7 +732,7 @@
         <v>0.021</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0211499751327229</v>
+        <v>0.0211497652928043</v>
       </c>
       <c r="H4" t="n">
         <v>0.055</v>
@@ -813,7 +813,7 @@
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>75.0830935163078</v>
+        <v>75.07498883644141</v>
       </c>
       <c r="H5" t="n">
         <v>530</v>
@@ -898,7 +898,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>75.0830935163078</v>
+        <v>75.07498883644141</v>
       </c>
       <c r="H6" t="n">
         <v>530</v>
@@ -983,7 +983,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>75.0830935163078</v>
+        <v>75.07498883644141</v>
       </c>
       <c r="H7" t="n">
         <v>530</v>
@@ -1068,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>75.0830935163078</v>
+        <v>75.07498883644141</v>
       </c>
       <c r="H8" t="n">
         <v>530</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00107</v>
+        <v>0.00114</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0035328294649923</v>
+        <v>0.0035598962883193</v>
       </c>
       <c r="H9" t="n">
         <v>0.0402889537405977</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00105</v>
       </c>
       <c r="M9" t="n">
         <v>0.00622</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00107</v>
+        <v>0.00114</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0035328294649923</v>
+        <v>0.0035598962883193</v>
       </c>
       <c r="H10" t="n">
         <v>0.0402889537405977</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00105</v>
       </c>
       <c r="M10" t="n">
         <v>0.00622</v>
@@ -1315,7 +1315,7 @@
         <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08603066521627251</v>
+        <v>0.08609439232228421</v>
       </c>
       <c r="H11" t="n">
         <v>0.189</v>
@@ -1396,7 +1396,7 @@
         <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08603066521627251</v>
+        <v>0.08609439232228421</v>
       </c>
       <c r="H12" t="n">
         <v>0.189</v>
@@ -1473,7 +1473,7 @@
         <v>0.089</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09140350877192981</v>
+        <v>0.0913771929824561</v>
       </c>
       <c r="H13" t="n">
         <v>0.243</v>
@@ -1484,7 +1484,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.061</v>
+        <v>0.06125</v>
       </c>
       <c r="M13" t="n">
         <v>0.11762</v>
@@ -1550,7 +1550,7 @@
         <v>0.089</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09140350877192981</v>
+        <v>0.0913771929824561</v>
       </c>
       <c r="H14" t="n">
         <v>0.243</v>
@@ -1561,7 +1561,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.061</v>
+        <v>0.06125</v>
       </c>
       <c r="M14" t="n">
         <v>0.11762</v>
@@ -1627,7 +1627,7 @@
         <v>0.11</v>
       </c>
       <c r="G15" t="n">
-        <v>0.138827468480324</v>
+        <v>0.13887951674565</v>
       </c>
       <c r="H15" t="n">
         <v>0.66</v>
@@ -1704,7 +1704,7 @@
         <v>0.11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.138827468480324</v>
+        <v>0.13887951674565</v>
       </c>
       <c r="H16" t="n">
         <v>0.66</v>
@@ -2182,7 +2182,7 @@
         <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>72.2300094992334</v>
+        <v>72.2259461105008</v>
       </c>
       <c r="H22" t="n">
         <v>630</v>
@@ -2267,7 +2267,7 @@
         <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>72.2300094992334</v>
+        <v>72.2259461105008</v>
       </c>
       <c r="H23" t="n">
         <v>630</v>
@@ -2352,7 +2352,7 @@
         <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>72.2300094992334</v>
+        <v>72.2259461105008</v>
       </c>
       <c r="H24" t="n">
         <v>630</v>
@@ -2437,7 +2437,7 @@
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>72.2300094992334</v>
+        <v>72.2259461105008</v>
       </c>
       <c r="H25" t="n">
         <v>630</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.00118</v>
+        <v>0.00121</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0033927561878143</v>
+        <v>0.0034168188359399</v>
       </c>
       <c r="H26" t="n">
         <v>0.0402889537405977</v>
@@ -2533,7 +2533,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00105</v>
       </c>
       <c r="M26" t="n">
         <v>0.00535</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.00118</v>
+        <v>0.00121</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0033927561878143</v>
+        <v>0.0034168188359399</v>
       </c>
       <c r="H27" t="n">
         <v>0.0402889537405977</v>
@@ -2614,7 +2614,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00105</v>
       </c>
       <c r="M27" t="n">
         <v>0.00535</v>
@@ -2684,7 +2684,7 @@
         <v>0.0745</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0829784432962157</v>
+        <v>0.0830288939218083</v>
       </c>
       <c r="H28" t="n">
         <v>0.1927</v>
@@ -2765,7 +2765,7 @@
         <v>0.0745</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0829784432962157</v>
+        <v>0.0830288939218083</v>
       </c>
       <c r="H29" t="n">
         <v>0.1927</v>
@@ -2842,7 +2842,7 @@
         <v>0.079</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08967241379310351</v>
+        <v>0.0896793103448276</v>
       </c>
       <c r="H30" t="n">
         <v>0.243</v>
@@ -2853,10 +2853,10 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.06</v>
+        <v>0.0604</v>
       </c>
       <c r="M30" t="n">
-        <v>0.12192</v>
+        <v>0.12242</v>
       </c>
       <c r="N30" t="n">
         <v>0.17024</v>
@@ -2919,7 +2919,7 @@
         <v>0.079</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08967241379310351</v>
+        <v>0.0896793103448276</v>
       </c>
       <c r="H31" t="n">
         <v>0.243</v>
@@ -2930,10 +2930,10 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.06</v>
+        <v>0.0604</v>
       </c>
       <c r="M31" t="n">
-        <v>0.12192</v>
+        <v>0.12242</v>
       </c>
       <c r="N31" t="n">
         <v>0.17024</v>
@@ -2996,7 +2996,7 @@
         <v>0.1195</v>
       </c>
       <c r="G32" t="n">
-        <v>0.145123546609973</v>
+        <v>0.145174697491414</v>
       </c>
       <c r="H32" t="n">
         <v>0.66</v>
@@ -3073,7 +3073,7 @@
         <v>0.1195</v>
       </c>
       <c r="G33" t="n">
-        <v>0.145123546609973</v>
+        <v>0.145174697491414</v>
       </c>
       <c r="H33" t="n">
         <v>0.66</v>
@@ -3308,7 +3308,7 @@
         <v>2.1</v>
       </c>
       <c r="G36" t="n">
-        <v>2.06138462687419</v>
+        <v>2.06862291417881</v>
       </c>
       <c r="H36" t="n">
         <v>3.9</v>
@@ -3551,7 +3551,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="n">
-        <v>75.0231129475092</v>
+        <v>75.0190495587766</v>
       </c>
       <c r="H39" t="n">
         <v>630</v>
@@ -3636,7 +3636,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="n">
-        <v>75.0231129475092</v>
+        <v>75.0190495587766</v>
       </c>
       <c r="H40" t="n">
         <v>630</v>
@@ -3721,7 +3721,7 @@
         <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>75.0231129475092</v>
+        <v>75.0190495587766</v>
       </c>
       <c r="H41" t="n">
         <v>630</v>
@@ -3806,7 +3806,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="n">
-        <v>75.0231129475092</v>
+        <v>75.0190495587766</v>
       </c>
       <c r="H42" t="n">
         <v>630</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.00121</v>
+        <v>0.0013</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0032374440937941</v>
+        <v>0.0032588944736747</v>
       </c>
       <c r="H43" t="n">
         <v>0.0402889537405977</v>
@@ -3902,7 +3902,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00096</v>
+        <v>0.00101</v>
       </c>
       <c r="M43" t="n">
         <v>0.00535</v>
@@ -3969,10 +3969,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.00121</v>
+        <v>0.0013</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0032374440937941</v>
+        <v>0.0032588944736747</v>
       </c>
       <c r="H44" t="n">
         <v>0.0402889537405977</v>
@@ -3983,7 +3983,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00096</v>
+        <v>0.00101</v>
       </c>
       <c r="M44" t="n">
         <v>0.00535</v>
@@ -4053,7 +4053,7 @@
         <v>0.08</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09255457376238541</v>
+        <v>0.0925963260042551</v>
       </c>
       <c r="H45" t="n">
         <v>0.2486</v>
@@ -4134,7 +4134,7 @@
         <v>0.08</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09255457376238541</v>
+        <v>0.0925963260042551</v>
       </c>
       <c r="H46" t="n">
         <v>0.2486</v>
@@ -4211,24 +4211,24 @@
         <v>0.089</v>
       </c>
       <c r="G47" t="n">
-        <v>0.102241379310345</v>
+        <v>0.102293103448276</v>
       </c>
       <c r="H47" t="n">
-        <v>0.257</v>
+        <v>0.2572</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2228</v>
+        <v>0.22258</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.0645</v>
+        <v>0.0641</v>
       </c>
       <c r="M47" t="n">
-        <v>0.15148</v>
+        <v>0.15169</v>
       </c>
       <c r="N47" t="n">
-        <v>0.20976</v>
+        <v>0.2095</v>
       </c>
       <c r="O47" t="n">
         <v>1812051.004</v>
@@ -4288,24 +4288,24 @@
         <v>0.089</v>
       </c>
       <c r="G48" t="n">
-        <v>0.102241379310345</v>
+        <v>0.102293103448276</v>
       </c>
       <c r="H48" t="n">
-        <v>0.257</v>
+        <v>0.2572</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2228</v>
+        <v>0.22258</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.0645</v>
+        <v>0.0641</v>
       </c>
       <c r="M48" t="n">
-        <v>0.15148</v>
+        <v>0.15169</v>
       </c>
       <c r="N48" t="n">
-        <v>0.20976</v>
+        <v>0.2095</v>
       </c>
       <c r="O48" t="n">
         <v>1812051.004</v>
@@ -4365,7 +4365,7 @@
         <v>0.164</v>
       </c>
       <c r="G49" t="n">
-        <v>0.171244236265146</v>
+        <v>0.171295387146587</v>
       </c>
       <c r="H49" t="n">
         <v>0.66</v>
@@ -4442,7 +4442,7 @@
         <v>0.164</v>
       </c>
       <c r="G50" t="n">
-        <v>0.171244236265146</v>
+        <v>0.171295387146587</v>
       </c>
       <c r="H50" t="n">
         <v>0.66</v>
@@ -4677,21 +4677,21 @@
         <v>2.15</v>
       </c>
       <c r="G53" t="n">
-        <v>2.22725362826956</v>
+        <v>2.24279797400779</v>
       </c>
       <c r="H53" t="n">
-        <v>4.31485960542335</v>
+        <v>4.72397499658866</v>
       </c>
       <c r="I53" t="n">
-        <v>3.9793</v>
+        <v>3.99848</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>2.59822</v>
+        <v>2.8</v>
       </c>
       <c r="M53" t="n">
-        <v>3.11334</v>
+        <v>3.04646</v>
       </c>
       <c r="N53" t="n">
         <v>3.675</v>
@@ -4920,7 +4920,7 @@
         <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>67.8723425159256</v>
+        <v>67.8684145734841</v>
       </c>
       <c r="H56" t="n">
         <v>630</v>
@@ -5005,7 +5005,7 @@
         <v>30</v>
       </c>
       <c r="G57" t="n">
-        <v>67.8723425159256</v>
+        <v>67.8684145734841</v>
       </c>
       <c r="H57" t="n">
         <v>630</v>
@@ -5090,7 +5090,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="n">
-        <v>67.8723425159256</v>
+        <v>67.8684145734841</v>
       </c>
       <c r="H58" t="n">
         <v>630</v>
@@ -5175,7 +5175,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="n">
-        <v>67.8723425159256</v>
+        <v>67.8684145734841</v>
       </c>
       <c r="H59" t="n">
         <v>630</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.00118</v>
+        <v>0.00121</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0030251637414662</v>
+        <v>0.0030545097068446</v>
       </c>
       <c r="H60" t="n">
         <v>0.0402889537405977</v>
@@ -5271,7 +5271,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.001</v>
+        <v>0.00109</v>
       </c>
       <c r="M60" t="n">
         <v>0.00535</v>
@@ -5338,10 +5338,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.00118</v>
+        <v>0.00121</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0030251637414662</v>
+        <v>0.0030545097068446</v>
       </c>
       <c r="H61" t="n">
         <v>0.0402889537405977</v>
@@ -5352,7 +5352,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.001</v>
+        <v>0.00109</v>
       </c>
       <c r="M61" t="n">
         <v>0.00535</v>
@@ -5577,16 +5577,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.1145</v>
+        <v>0.11465</v>
       </c>
       <c r="G64" t="n">
-        <v>0.12505</v>
+        <v>0.125096666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0.273</v>
+        <v>0.2728</v>
       </c>
       <c r="I64" t="n">
-        <v>0.25</v>
+        <v>0.2501</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -5594,10 +5594,10 @@
         <v>0.078</v>
       </c>
       <c r="M64" t="n">
-        <v>0.1975</v>
+        <v>0.19765</v>
       </c>
       <c r="N64" t="n">
-        <v>0.2236</v>
+        <v>0.22336</v>
       </c>
       <c r="O64" t="n">
         <v>1812051.004</v>
@@ -5654,16 +5654,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.1145</v>
+        <v>0.11465</v>
       </c>
       <c r="G65" t="n">
-        <v>0.12505</v>
+        <v>0.125096666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0.273</v>
+        <v>0.2728</v>
       </c>
       <c r="I65" t="n">
-        <v>0.25</v>
+        <v>0.2501</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -5671,10 +5671,10 @@
         <v>0.078</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1975</v>
+        <v>0.19765</v>
       </c>
       <c r="N65" t="n">
-        <v>0.2236</v>
+        <v>0.22336</v>
       </c>
       <c r="O65" t="n">
         <v>1812051.004</v>
@@ -6046,24 +6046,24 @@
         <v>2.2</v>
       </c>
       <c r="G70" t="n">
-        <v>2.31069431327783</v>
+        <v>2.33625431131994</v>
       </c>
       <c r="H70" t="n">
-        <v>4.31485960542335</v>
+        <v>4.72397499658866</v>
       </c>
       <c r="I70" t="n">
-        <v>3.9793</v>
+        <v>4.00626</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>2.59411</v>
+        <v>2.695</v>
       </c>
       <c r="M70" t="n">
-        <v>3.31584</v>
+        <v>3.43023</v>
       </c>
       <c r="N70" t="n">
-        <v>3.675</v>
+        <v>3.90311</v>
       </c>
       <c r="O70" t="n">
         <v>1812051.004</v>
@@ -6289,7 +6289,7 @@
         <v>30</v>
       </c>
       <c r="G73" t="n">
-        <v>58.8665016965533</v>
+        <v>58.8604741267243</v>
       </c>
       <c r="H73" t="n">
         <v>630</v>
@@ -6374,7 +6374,7 @@
         <v>30</v>
       </c>
       <c r="G74" t="n">
-        <v>58.8665016965533</v>
+        <v>58.8604741267243</v>
       </c>
       <c r="H74" t="n">
         <v>630</v>
@@ -6459,7 +6459,7 @@
         <v>30</v>
       </c>
       <c r="G75" t="n">
-        <v>58.8665016965533</v>
+        <v>58.8604741267243</v>
       </c>
       <c r="H75" t="n">
         <v>630</v>
@@ -6544,7 +6544,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="n">
-        <v>58.8665016965533</v>
+        <v>58.8604741267243</v>
       </c>
       <c r="H76" t="n">
         <v>630</v>
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00126</v>
+        <v>0.00136</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00291426218665</v>
+        <v>0.0029560991042902</v>
       </c>
       <c r="H77" t="n">
         <v>0.0402889537405977</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00108</v>
+        <v>0.00116</v>
       </c>
       <c r="M77" t="n">
         <v>0.00361</v>
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00126</v>
+        <v>0.00136</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00291426218665</v>
+        <v>0.0029560991042902</v>
       </c>
       <c r="H78" t="n">
         <v>0.0402889537405977</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00108</v>
+        <v>0.00116</v>
       </c>
       <c r="M78" t="n">
         <v>0.00361</v>
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1505</v>
+        <v>0.1506</v>
       </c>
       <c r="G81" t="n">
-        <v>0.155133333333333</v>
+        <v>0.15518</v>
       </c>
       <c r="H81" t="n">
         <v>0.365</v>
@@ -6960,13 +6960,13 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.1275</v>
+        <v>0.12775</v>
       </c>
       <c r="M81" t="n">
-        <v>0.2311</v>
+        <v>0.23089</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2744</v>
+        <v>0.27434</v>
       </c>
       <c r="O81" t="n">
         <v>1812051.004</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.1505</v>
+        <v>0.1506</v>
       </c>
       <c r="G82" t="n">
-        <v>0.155133333333333</v>
+        <v>0.15518</v>
       </c>
       <c r="H82" t="n">
         <v>0.365</v>
@@ -7037,13 +7037,13 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.1275</v>
+        <v>0.12775</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2311</v>
+        <v>0.23089</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2744</v>
+        <v>0.27434</v>
       </c>
       <c r="O82" t="n">
         <v>1812051.004</v>
@@ -7415,24 +7415,24 @@
         <v>2.5</v>
       </c>
       <c r="G87" t="n">
-        <v>2.52699701009064</v>
+        <v>2.62979897845766</v>
       </c>
       <c r="H87" t="n">
-        <v>4.70078359234262</v>
+        <v>5.65917890534048</v>
       </c>
       <c r="I87" t="n">
-        <v>4.2885</v>
+        <v>4.70437</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>3.46431</v>
+        <v>3.89942</v>
       </c>
       <c r="N87" t="n">
-        <v>4.04004</v>
+        <v>4.14481</v>
       </c>
       <c r="O87" t="n">
         <v>1812051.004</v>
@@ -7658,7 +7658,7 @@
         <v>23</v>
       </c>
       <c r="G90" t="n">
-        <v>56.5924931709719</v>
+        <v>56.5785054064632</v>
       </c>
       <c r="H90" t="n">
         <v>630</v>
@@ -7743,7 +7743,7 @@
         <v>23</v>
       </c>
       <c r="G91" t="n">
-        <v>56.5924931709719</v>
+        <v>56.5785054064632</v>
       </c>
       <c r="H91" t="n">
         <v>630</v>
@@ -7828,7 +7828,7 @@
         <v>23</v>
       </c>
       <c r="G92" t="n">
-        <v>56.5924931709719</v>
+        <v>56.5785054064632</v>
       </c>
       <c r="H92" t="n">
         <v>630</v>
@@ -7913,7 +7913,7 @@
         <v>23</v>
       </c>
       <c r="G93" t="n">
-        <v>56.5924931709719</v>
+        <v>56.5785054064632</v>
       </c>
       <c r="H93" t="n">
         <v>630</v>
@@ -7995,10 +7995,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.00148</v>
+        <v>0.00157</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0018118174516909</v>
+        <v>0.0018767228407328</v>
       </c>
       <c r="H94" t="n">
         <v>0.010638641473807</v>
@@ -8009,10 +8009,10 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.0012</v>
+        <v>0.00127</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0024</v>
+        <v>0.00248</v>
       </c>
       <c r="N94" t="n">
         <v>0.0033</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.00148</v>
+        <v>0.00157</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0018118174516909</v>
+        <v>0.0018767228407328</v>
       </c>
       <c r="H95" t="n">
         <v>0.010638641473807</v>
@@ -8090,10 +8090,10 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.0012</v>
+        <v>0.00127</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0024</v>
+        <v>0.00248</v>
       </c>
       <c r="N95" t="n">
         <v>0.0033</v>
@@ -8315,10 +8315,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.1895</v>
+        <v>0.18935</v>
       </c>
       <c r="G98" t="n">
-        <v>0.17655</v>
+        <v>0.176596666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0.365</v>
@@ -8329,10 +8329,10 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.1555</v>
+        <v>0.15565</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2674</v>
+        <v>0.26734</v>
       </c>
       <c r="N98" t="n">
         <v>0.312</v>
@@ -8392,10 +8392,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.1895</v>
+        <v>0.18935</v>
       </c>
       <c r="G99" t="n">
-        <v>0.17655</v>
+        <v>0.176596666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0.365</v>
@@ -8406,10 +8406,10 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.1555</v>
+        <v>0.15565</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2674</v>
+        <v>0.26734</v>
       </c>
       <c r="N99" t="n">
         <v>0.312</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.59</v>
+        <v>2.63649</v>
       </c>
       <c r="G104" t="n">
-        <v>2.56625126727051</v>
+        <v>2.72326985321745</v>
       </c>
       <c r="H104" t="n">
-        <v>4.70078359234262</v>
+        <v>5.65917890534048</v>
       </c>
       <c r="I104" t="n">
-        <v>4.30168</v>
+        <v>4.71417</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         <v>3</v>
       </c>
       <c r="M104" t="n">
-        <v>3.6439</v>
+        <v>3.91526</v>
       </c>
       <c r="N104" t="n">
-        <v>4.08582</v>
+        <v>4.27064</v>
       </c>
       <c r="O104" t="n">
         <v>1812051.004</v>
@@ -9027,7 +9027,7 @@
         <v>25</v>
       </c>
       <c r="G107" t="n">
-        <v>58.2591598376385</v>
+        <v>58.2451720731298</v>
       </c>
       <c r="H107" t="n">
         <v>620</v>
@@ -9112,7 +9112,7 @@
         <v>25</v>
       </c>
       <c r="G108" t="n">
-        <v>58.2591598376385</v>
+        <v>58.2451720731298</v>
       </c>
       <c r="H108" t="n">
         <v>620</v>
@@ -9197,7 +9197,7 @@
         <v>25</v>
       </c>
       <c r="G109" t="n">
-        <v>58.2591598376385</v>
+        <v>58.2451720731298</v>
       </c>
       <c r="H109" t="n">
         <v>620</v>
@@ -9282,7 +9282,7 @@
         <v>25</v>
       </c>
       <c r="G110" t="n">
-        <v>58.2591598376385</v>
+        <v>58.2451720731298</v>
       </c>
       <c r="H110" t="n">
         <v>620</v>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.0018</v>
+        <v>0.00194</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0022625845529117</v>
+        <v>0.0023552260342119</v>
       </c>
       <c r="H111" t="n">
         <v>0.010638641473807</v>
@@ -9378,13 +9378,13 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00147</v>
+        <v>0.00159</v>
       </c>
       <c r="M111" t="n">
-        <v>0.00372</v>
+        <v>0.00394</v>
       </c>
       <c r="N111" t="n">
-        <v>0.00477</v>
+        <v>0.00479</v>
       </c>
       <c r="O111" t="n">
         <v>1812051.004</v>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.0018</v>
+        <v>0.00194</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0022625845529117</v>
+        <v>0.0023552260342119</v>
       </c>
       <c r="H112" t="n">
         <v>0.010638641473807</v>
@@ -9459,13 +9459,13 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00147</v>
+        <v>0.00159</v>
       </c>
       <c r="M112" t="n">
-        <v>0.00372</v>
+        <v>0.00394</v>
       </c>
       <c r="N112" t="n">
-        <v>0.00477</v>
+        <v>0.00479</v>
       </c>
       <c r="O112" t="n">
         <v>1812051.004</v>
@@ -9684,10 +9684,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.203</v>
+        <v>0.20325</v>
       </c>
       <c r="G115" t="n">
-        <v>0.204183333333333</v>
+        <v>0.204205</v>
       </c>
       <c r="H115" t="n">
         <v>0.385</v>
@@ -9761,10 +9761,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.203</v>
+        <v>0.20325</v>
       </c>
       <c r="G116" t="n">
-        <v>0.204183333333333</v>
+        <v>0.204205</v>
       </c>
       <c r="H116" t="n">
         <v>0.385</v>
@@ -10150,27 +10150,27 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.59822</v>
+        <v>2.63649</v>
       </c>
       <c r="G121" t="n">
-        <v>2.66199979980538</v>
+        <v>2.78861773221979</v>
       </c>
       <c r="H121" t="n">
-        <v>4.98387361085171</v>
+        <v>5.65917890534048</v>
       </c>
       <c r="I121" t="n">
-        <v>4.40326</v>
+        <v>4.71417</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>3.02272</v>
+        <v>3.25</v>
       </c>
       <c r="M121" t="n">
-        <v>3.6439</v>
+        <v>3.93154</v>
       </c>
       <c r="N121" t="n">
-        <v>4.24985</v>
+        <v>4.55924</v>
       </c>
       <c r="O121" t="n">
         <v>1812051.004</v>
@@ -10396,7 +10396,7 @@
         <v>30</v>
       </c>
       <c r="G124" t="n">
-        <v>72.3591598376385</v>
+        <v>72.3451720731298</v>
       </c>
       <c r="H124" t="n">
         <v>620</v>
@@ -10481,7 +10481,7 @@
         <v>30</v>
       </c>
       <c r="G125" t="n">
-        <v>72.3591598376385</v>
+        <v>72.3451720731298</v>
       </c>
       <c r="H125" t="n">
         <v>620</v>
@@ -10566,7 +10566,7 @@
         <v>30</v>
       </c>
       <c r="G126" t="n">
-        <v>72.3591598376385</v>
+        <v>72.3451720731298</v>
       </c>
       <c r="H126" t="n">
         <v>620</v>
@@ -10651,7 +10651,7 @@
         <v>30</v>
       </c>
       <c r="G127" t="n">
-        <v>72.3591598376385</v>
+        <v>72.3451720731298</v>
       </c>
       <c r="H127" t="n">
         <v>620</v>
@@ -10733,27 +10733,27 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.002</v>
+        <v>0.00216</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0026795557533696</v>
+        <v>0.0028021767646377</v>
       </c>
       <c r="H128" t="n">
         <v>0.0090926674337898</v>
       </c>
       <c r="I128" t="n">
-        <v>0.00618</v>
+        <v>0.0063</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.0018</v>
+        <v>0.00194</v>
       </c>
       <c r="M128" t="n">
-        <v>0.00435</v>
+        <v>0.00456</v>
       </c>
       <c r="N128" t="n">
-        <v>0.00569</v>
+        <v>0.00588</v>
       </c>
       <c r="O128" t="n">
         <v>1812051.004</v>
@@ -10814,27 +10814,27 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.002</v>
+        <v>0.00216</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0026795557533696</v>
+        <v>0.0028021767646377</v>
       </c>
       <c r="H129" t="n">
         <v>0.0090926674337898</v>
       </c>
       <c r="I129" t="n">
-        <v>0.00618</v>
+        <v>0.0063</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.0018</v>
+        <v>0.00194</v>
       </c>
       <c r="M129" t="n">
-        <v>0.00435</v>
+        <v>0.00456</v>
       </c>
       <c r="N129" t="n">
-        <v>0.00569</v>
+        <v>0.00588</v>
       </c>
       <c r="O129" t="n">
         <v>1812051.004</v>
@@ -11056,7 +11056,7 @@
         <v>0.205</v>
       </c>
       <c r="G132" t="n">
-        <v>0.219433333333333</v>
+        <v>0.219428333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0.385</v>
@@ -11133,7 +11133,7 @@
         <v>0.205</v>
       </c>
       <c r="G133" t="n">
-        <v>0.219433333333333</v>
+        <v>0.219428333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0.385</v>
@@ -11519,27 +11519,27 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.59387</v>
+        <v>2.6307</v>
       </c>
       <c r="G138" t="n">
-        <v>2.53501012045694</v>
+        <v>2.68356823068327</v>
       </c>
       <c r="H138" t="n">
-        <v>4.98387361085171</v>
+        <v>5.65917890534048</v>
       </c>
       <c r="I138" t="n">
-        <v>4.53163</v>
+        <v>4.69837</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>2.91929</v>
+        <v>2.949</v>
       </c>
       <c r="M138" t="n">
-        <v>3.4698</v>
+        <v>3.89257</v>
       </c>
       <c r="N138" t="n">
-        <v>4.25386</v>
+        <v>4.18893</v>
       </c>
       <c r="O138" t="n">
         <v>1812051.004</v>
@@ -11765,7 +11765,7 @@
         <v>30</v>
       </c>
       <c r="G141" t="n">
-        <v>89.0262642416663</v>
+        <v>89.0120393964032</v>
       </c>
       <c r="H141" t="n">
         <v>620</v>
@@ -11850,7 +11850,7 @@
         <v>30</v>
       </c>
       <c r="G142" t="n">
-        <v>89.0262642416663</v>
+        <v>89.0120393964032</v>
       </c>
       <c r="H142" t="n">
         <v>620</v>
@@ -11935,7 +11935,7 @@
         <v>30</v>
       </c>
       <c r="G143" t="n">
-        <v>89.0262642416663</v>
+        <v>89.0120393964032</v>
       </c>
       <c r="H143" t="n">
         <v>620</v>
@@ -12020,7 +12020,7 @@
         <v>30</v>
       </c>
       <c r="G144" t="n">
-        <v>89.0262642416663</v>
+        <v>89.0120393964032</v>
       </c>
       <c r="H144" t="n">
         <v>620</v>
@@ -12102,27 +12102,27 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.00253</v>
+        <v>0.00269</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0031736202762765</v>
+        <v>0.0032926154366884</v>
       </c>
       <c r="H145" t="n">
         <v>0.0090926674337898</v>
       </c>
       <c r="I145" t="n">
-        <v>0.00675</v>
+        <v>0.00676</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.00297</v>
+        <v>0.00317</v>
       </c>
       <c r="M145" t="n">
-        <v>0.00557</v>
+        <v>0.00558</v>
       </c>
       <c r="N145" t="n">
-        <v>0.00608</v>
+        <v>0.00616</v>
       </c>
       <c r="O145" t="n">
         <v>1812051.004</v>
@@ -12183,27 +12183,27 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.00253</v>
+        <v>0.00269</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0031736202762765</v>
+        <v>0.0032926154366884</v>
       </c>
       <c r="H146" t="n">
         <v>0.0090926674337898</v>
       </c>
       <c r="I146" t="n">
-        <v>0.00675</v>
+        <v>0.00676</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.00297</v>
+        <v>0.00317</v>
       </c>
       <c r="M146" t="n">
-        <v>0.00557</v>
+        <v>0.00558</v>
       </c>
       <c r="N146" t="n">
-        <v>0.00608</v>
+        <v>0.00616</v>
       </c>
       <c r="O146" t="n">
         <v>1812051.004</v>
@@ -12425,7 +12425,7 @@
         <v>0.205</v>
       </c>
       <c r="G149" t="n">
-        <v>0.219779661016949</v>
+        <v>0.219796610169492</v>
       </c>
       <c r="H149" t="n">
         <v>0.385</v>
@@ -12502,7 +12502,7 @@
         <v>0.205</v>
       </c>
       <c r="G150" t="n">
-        <v>0.219779661016949</v>
+        <v>0.219796610169492</v>
       </c>
       <c r="H150" t="n">
         <v>0.385</v>
@@ -12888,27 +12888,27 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2.82545</v>
+        <v>2.77404</v>
       </c>
       <c r="G155" t="n">
-        <v>2.60907056076569</v>
+        <v>2.79257313343642</v>
       </c>
       <c r="H155" t="n">
-        <v>4.98387361085171</v>
+        <v>5.65917890534048</v>
       </c>
       <c r="I155" t="n">
-        <v>4.68669</v>
+        <v>4.9377</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>2.97101</v>
+        <v>3.24445</v>
       </c>
       <c r="M155" t="n">
-        <v>3.79677</v>
+        <v>3.96592</v>
       </c>
       <c r="N155" t="n">
-        <v>4.4245</v>
+        <v>4.53302</v>
       </c>
       <c r="O155" t="n">
         <v>1812051.004</v>
@@ -13134,7 +13134,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="n">
-        <v>97.94068083560551</v>
+        <v>97.932446151454</v>
       </c>
       <c r="H158" t="n">
         <v>620</v>
@@ -13219,7 +13219,7 @@
         <v>34</v>
       </c>
       <c r="G159" t="n">
-        <v>97.94068083560551</v>
+        <v>97.932446151454</v>
       </c>
       <c r="H159" t="n">
         <v>620</v>
@@ -13304,7 +13304,7 @@
         <v>34</v>
       </c>
       <c r="G160" t="n">
-        <v>97.94068083560551</v>
+        <v>97.932446151454</v>
       </c>
       <c r="H160" t="n">
         <v>620</v>
@@ -13389,7 +13389,7 @@
         <v>34</v>
       </c>
       <c r="G161" t="n">
-        <v>97.94068083560551</v>
+        <v>97.932446151454</v>
       </c>
       <c r="H161" t="n">
         <v>620</v>
@@ -13471,10 +13471,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00278</v>
+        <v>0.00286</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0032583087042962</v>
+        <v>0.0033504385858497</v>
       </c>
       <c r="H162" t="n">
         <v>0.0090926674337898</v>
@@ -13485,13 +13485,13 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00297</v>
+        <v>0.00317</v>
       </c>
       <c r="M162" t="n">
-        <v>0.00565</v>
+        <v>0.00566</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0061</v>
+        <v>0.00619</v>
       </c>
       <c r="O162" t="n">
         <v>1812051.004</v>
@@ -13552,10 +13552,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00278</v>
+        <v>0.00286</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0032583087042962</v>
+        <v>0.0033504385858497</v>
       </c>
       <c r="H163" t="n">
         <v>0.0090926674337898</v>
@@ -13566,13 +13566,13 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.00297</v>
+        <v>0.00317</v>
       </c>
       <c r="M163" t="n">
-        <v>0.00565</v>
+        <v>0.00566</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0061</v>
+        <v>0.00619</v>
       </c>
       <c r="O163" t="n">
         <v>1812051.004</v>
@@ -13794,7 +13794,7 @@
         <v>0.191</v>
       </c>
       <c r="G166" t="n">
-        <v>0.19951724137931</v>
+        <v>0.199551724137931</v>
       </c>
       <c r="H166" t="n">
         <v>0.385</v>
@@ -13871,7 +13871,7 @@
         <v>0.191</v>
       </c>
       <c r="G167" t="n">
-        <v>0.19951724137931</v>
+        <v>0.199551724137931</v>
       </c>
       <c r="H167" t="n">
         <v>0.385</v>
@@ -14759,10 +14759,10 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.00311</v>
+        <v>0.00315</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0033037252779065</v>
+        <v>0.0033594427003804</v>
       </c>
       <c r="H178" t="n">
         <v>0.0090926674337898</v>
@@ -14773,13 +14773,13 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>0.00315</v>
+        <v>0.0032</v>
       </c>
       <c r="M178" t="n">
-        <v>0.00565</v>
+        <v>0.00566</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0061</v>
+        <v>0.00619</v>
       </c>
       <c r="O178" t="n">
         <v>1812051.004</v>
@@ -14840,10 +14840,10 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.00311</v>
+        <v>0.00315</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0033037252779065</v>
+        <v>0.0033594427003804</v>
       </c>
       <c r="H179" t="n">
         <v>0.0090926674337898</v>
@@ -14854,13 +14854,13 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.00315</v>
+        <v>0.0032</v>
       </c>
       <c r="M179" t="n">
-        <v>0.00565</v>
+        <v>0.00566</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0061</v>
+        <v>0.00619</v>
       </c>
       <c r="O179" t="n">
         <v>1812051.004</v>
@@ -15082,7 +15082,7 @@
         <v>0.161</v>
       </c>
       <c r="G182" t="n">
-        <v>0.178051724137931</v>
+        <v>0.178077586206897</v>
       </c>
       <c r="H182" t="n">
         <v>0.385</v>
@@ -15159,7 +15159,7 @@
         <v>0.161</v>
       </c>
       <c r="G183" t="n">
-        <v>0.178051724137931</v>
+        <v>0.178077586206897</v>
       </c>
       <c r="H183" t="n">
         <v>0.385</v>
@@ -15518,6 +15518,1294 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0218275862068966</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.03028</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.03558</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0218275862068966</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.03028</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.03558</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="G190" t="n">
+        <v>123.782969778182</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1230</v>
+      </c>
+      <c r="I190" t="n">
+        <v>462</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3.44827586206897</v>
+      </c>
+      <c r="K190" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="L190" t="n">
+        <v>120</v>
+      </c>
+      <c r="M190" t="n">
+        <v>207.12</v>
+      </c>
+      <c r="N190" t="n">
+        <v>325.8</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="G191" t="n">
+        <v>123.782969778182</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1230</v>
+      </c>
+      <c r="I191" t="n">
+        <v>462</v>
+      </c>
+      <c r="J191" t="n">
+        <v>3.44827586206897</v>
+      </c>
+      <c r="K191" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="L191" t="n">
+        <v>120</v>
+      </c>
+      <c r="M191" t="n">
+        <v>207.12</v>
+      </c>
+      <c r="N191" t="n">
+        <v>325.8</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="G192" t="n">
+        <v>123.782969778182</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1230</v>
+      </c>
+      <c r="I192" t="n">
+        <v>462</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3.44827586206897</v>
+      </c>
+      <c r="K192" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="L192" t="n">
+        <v>120</v>
+      </c>
+      <c r="M192" t="n">
+        <v>207.12</v>
+      </c>
+      <c r="N192" t="n">
+        <v>325.8</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="G193" t="n">
+        <v>123.782969778182</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1230</v>
+      </c>
+      <c r="I193" t="n">
+        <v>462</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3.44827586206897</v>
+      </c>
+      <c r="K193" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="L193" t="n">
+        <v>120</v>
+      </c>
+      <c r="M193" t="n">
+        <v>207.12</v>
+      </c>
+      <c r="N193" t="n">
+        <v>325.8</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.00284</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.0038649088392628</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.0408122319319232</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.00751</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0.00299</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.00582</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.00648</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.00284</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.0038649088392628</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.0408122319319232</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.00751</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0.00299</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.00582</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.00648</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.14904728401743</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.20028</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.23572</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.14904728401743</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.20028</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.23572</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.158060344827586</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.20338</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.158060344827586</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.20338</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.193275862068966</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.2786</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.193275862068966</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.2786</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.0327931034482759</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.0626</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.05258</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0327931034482759</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.0626</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.05258</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangaehuehuatdsRangatauaSTP_b9406cc740.xlsx
+++ b/state_results/Rivers/MangaehuehuatdsRangatauaSTP_b9406cc740.xlsx
@@ -3308,13 +3308,13 @@
         <v>2.1</v>
       </c>
       <c r="G36" t="n">
-        <v>2.06862291417881</v>
+        <v>2.08218862045714</v>
       </c>
       <c r="H36" t="n">
         <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>3.44</v>
+        <v>3.6275</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>3.1</v>
+        <v>3.204</v>
       </c>
       <c r="O36" t="n">
         <v>1812051.004</v>
@@ -4677,24 +4677,24 @@
         <v>2.15</v>
       </c>
       <c r="G53" t="n">
-        <v>2.24279797400779</v>
+        <v>2.29870666372448</v>
       </c>
       <c r="H53" t="n">
-        <v>4.72397499658866</v>
+        <v>6.28423804246152</v>
       </c>
       <c r="I53" t="n">
-        <v>3.99848</v>
+        <v>4.12541</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>2.8</v>
+        <v>2.60831</v>
       </c>
       <c r="M53" t="n">
-        <v>3.04646</v>
+        <v>3.38568</v>
       </c>
       <c r="N53" t="n">
-        <v>3.675</v>
+        <v>3.7704</v>
       </c>
       <c r="O53" t="n">
         <v>1812051.004</v>
@@ -6046,24 +6046,24 @@
         <v>2.2</v>
       </c>
       <c r="G70" t="n">
-        <v>2.33625431131994</v>
+        <v>2.41850470564574</v>
       </c>
       <c r="H70" t="n">
-        <v>4.72397499658866</v>
+        <v>6.28423804246152</v>
       </c>
       <c r="I70" t="n">
-        <v>4.00626</v>
+        <v>4.31362</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>2.695</v>
+        <v>2.59916</v>
       </c>
       <c r="M70" t="n">
-        <v>3.43023</v>
+        <v>3.5</v>
       </c>
       <c r="N70" t="n">
-        <v>3.90311</v>
+        <v>3.93005</v>
       </c>
       <c r="O70" t="n">
         <v>1812051.004</v>
@@ -7412,27 +7412,27 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G87" t="n">
-        <v>2.62979897845766</v>
+        <v>2.65652392880993</v>
       </c>
       <c r="H87" t="n">
-        <v>5.65917890534048</v>
+        <v>6.35142030476686</v>
       </c>
       <c r="I87" t="n">
-        <v>4.70437</v>
+        <v>5.11082</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M87" t="n">
-        <v>3.89942</v>
+        <v>3.50289</v>
       </c>
       <c r="N87" t="n">
-        <v>4.14481</v>
+        <v>4.36018</v>
       </c>
       <c r="O87" t="n">
         <v>1812051.004</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.63649</v>
+        <v>2.5</v>
       </c>
       <c r="G104" t="n">
-        <v>2.72326985321745</v>
+        <v>2.70687023274387</v>
       </c>
       <c r="H104" t="n">
-        <v>5.65917890534048</v>
+        <v>6.35142030476686</v>
       </c>
       <c r="I104" t="n">
-        <v>4.71417</v>
+        <v>5.17863</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -8798,10 +8798,10 @@
         <v>3</v>
       </c>
       <c r="M104" t="n">
-        <v>3.91526</v>
+        <v>3.70764</v>
       </c>
       <c r="N104" t="n">
-        <v>4.27064</v>
+        <v>4.46651</v>
       </c>
       <c r="O104" t="n">
         <v>1812051.004</v>
@@ -10150,27 +10150,27 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.63649</v>
+        <v>2.5263</v>
       </c>
       <c r="G121" t="n">
-        <v>2.78861773221979</v>
+        <v>2.7557389471731</v>
       </c>
       <c r="H121" t="n">
-        <v>5.65917890534048</v>
+        <v>6.35142030476686</v>
       </c>
       <c r="I121" t="n">
-        <v>4.71417</v>
+        <v>5.33935</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>3.25</v>
+        <v>3.05713</v>
       </c>
       <c r="M121" t="n">
-        <v>3.93154</v>
+        <v>3.93438</v>
       </c>
       <c r="N121" t="n">
-        <v>4.55924</v>
+        <v>4.91192</v>
       </c>
       <c r="O121" t="n">
         <v>1812051.004</v>
@@ -11519,27 +11519,27 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.6307</v>
+        <v>2.46025</v>
       </c>
       <c r="G138" t="n">
-        <v>2.68356823068327</v>
+        <v>2.58598320427517</v>
       </c>
       <c r="H138" t="n">
-        <v>5.65917890534048</v>
+        <v>6.35142030476686</v>
       </c>
       <c r="I138" t="n">
-        <v>4.69837</v>
+        <v>5.29016</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>2.949</v>
+        <v>2.62453</v>
       </c>
       <c r="M138" t="n">
-        <v>3.89257</v>
+        <v>3.75951</v>
       </c>
       <c r="N138" t="n">
-        <v>4.18893</v>
+        <v>4.85767</v>
       </c>
       <c r="O138" t="n">
         <v>1812051.004</v>
@@ -12888,27 +12888,27 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2.77404</v>
+        <v>2.49473</v>
       </c>
       <c r="G155" t="n">
-        <v>2.79257313343642</v>
+        <v>2.61362587980281</v>
       </c>
       <c r="H155" t="n">
-        <v>5.65917890534048</v>
+        <v>6.35142030476686</v>
       </c>
       <c r="I155" t="n">
-        <v>4.9377</v>
+        <v>5.32767</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>3.24445</v>
+        <v>2.84083</v>
       </c>
       <c r="M155" t="n">
-        <v>3.96592</v>
+        <v>3.93435</v>
       </c>
       <c r="N155" t="n">
-        <v>4.53302</v>
+        <v>4.80561</v>
       </c>
       <c r="O155" t="n">
         <v>1812051.004</v>
